--- a/biology/Médecine/Oneirophrénie/Oneirophrénie.xlsx
+++ b/biology/Médecine/Oneirophrénie/Oneirophrénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oneirophr%C3%A9nie</t>
+          <t>Oneirophrénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’oneirophrénie[1] est un état hallucinatoire causé par divers facteurs tels qu'une agrypnie prolongée, une privation sensorielle ou les drogues (comme l'ibogaïne). Le terme vient des mots grecs ὄνειρο (oneiro, « rêve ») et φρενός (phrenos, « esprit »). Elle possède les caractéristiques de la schizophrénie, tels qu'un état de confusion et de manque de conscience, mais sans aucune présence des symptômes de dissociation typiques à ce trouble.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’oneirophrénie est un état hallucinatoire causé par divers facteurs tels qu'une agrypnie prolongée, une privation sensorielle ou les drogues (comme l'ibogaïne). Le terme vient des mots grecs ὄνειρο (oneiro, « rêve ») et φρενός (phrenos, « esprit »). Elle possède les caractéristiques de la schizophrénie, tels qu'un état de confusion et de manque de conscience, mais sans aucune présence des symptômes de dissociation typiques à ce trouble.
 Les individus affectés par l'oneirophrénie ont un sentiment de perte de réalité dans lequel, dans de sévères cas, ils peuvent par la suite souffrir d'illusions et d'hallucinations. Il est estimé à 50 %, ou plus, le taux de patients schizophrènes présentant des caractéristiques d'oneirophrénie.
 L'oneirophrénie a été étudié durant les années 1950 par le psychiatre et neurologue Ladislas J. Meduna (1896-1964), également connu pour avoir inventé la Cure de Sakel.
 Bien que le terme soit cité dans certains manuels de psychiatrie, comme le DSM-IV et la Classification internationale des maladies (CIM), l'oneirophrénie en tant qu'entité à part n'est plus en actuelle utilisation.
